--- a/phishing/data/PhishingData.xlsx
+++ b/phishing/data/PhishingData.xlsx
@@ -25,31 +25,31 @@
     <t xml:space="preserve">SFH</t>
   </si>
   <si>
-    <t xml:space="preserve">Widnow </t>
+    <t xml:space="preserve">Widnow</t>
   </si>
   <si>
     <t xml:space="preserve">SSLfinal</t>
   </si>
   <si>
-    <t xml:space="preserve">Request URL</t>
+    <t xml:space="preserve">Request</t>
   </si>
   <si>
     <t xml:space="preserve">Anchor</t>
   </si>
   <si>
-    <t xml:space="preserve">web_traffic</t>
+    <t xml:space="preserve">Traffic</t>
   </si>
   <si>
     <t xml:space="preserve">Length</t>
   </si>
   <si>
-    <t xml:space="preserve">domain</t>
+    <t xml:space="preserve">Domain</t>
   </si>
   <si>
     <t xml:space="preserve">IP</t>
   </si>
   <si>
-    <t xml:space="preserve">Result </t>
+    <t xml:space="preserve">Result</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -73,6 +73,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK TC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,12 +168,12 @@
   <dimension ref="A1:J1354"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
